--- a/testData/TestData.xlsx
+++ b/testData/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91931\eclipse-workspace\WebApp_SauceLabs\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D5198-6C15-4105-8EEF-259EB4BEAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B201ECED-43DA-42E1-B2A6-1D9CC8E9C00B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="itemData" sheetId="2" r:id="rId1"/>
     <sheet name="loginTestData" sheetId="1" r:id="rId2"/>
+    <sheet name="invalidLoginTestData" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>username</t>
   </si>
@@ -50,6 +51,9 @@
   </si>
   <si>
     <t>Backpack, Fleece Jacket</t>
+  </si>
+  <si>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -460,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,4 +501,35 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFE93F64-C2D9-4272-BF60-5CB4810CFB6C}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>